--- a/biology/Médecine/Alex_McKay/Alex_McKay.xlsx
+++ b/biology/Médecine/Alex_McKay/Alex_McKay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alex McKay, de son nom complet Alexander Colin McKay, né le 27 octobre 1955 à Wellington[1], est un historien et tibétologue néozélandais, chercheur à la School of Oriental and African Studies de l'université de Londres[2]. Il est l'auteur et l'éditeur de plusieurs ouvrages sur le Tibet.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alex McKay, de son nom complet Alexander Colin McKay, né le 27 octobre 1955 à Wellington, est un historien et tibétologue néozélandais, chercheur à la School of Oriental and African Studies de l'université de Londres. Il est l'auteur et l'éditeur de plusieurs ouvrages sur le Tibet.
 </t>
         </is>
       </c>
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se rend au Tibet pour la première fois en 1984 à l'époque de son ouverture aux voyageurs occidentaux[3].
-En 1989, ses voyages au Tibet et dans l'Himalaya indien le conduisent à commencer des études à l’université de Londres. Il obtient un BA en sciences et histoire à l'université de Londres en 1992 et bénéficie d'une bourse majeure de la British Academy lui permettant de terminer sa thèse de doctorat en 1995 sur le Tibet et le Raj britannique[4].
-Entre novembre 1995 et août 2000, Alex McKay travaille à l’Institut international d’études asiatiques (IIAS) à Leyde, dont il est resté membre associé[4].
-En septembre 2000, il reçoit une bourse de recherche du millénaire de l'université de Londres de deux ans pour étudier l’histoire du pèlerinage indo-tibétain au mont Kailash[4]. 
-Alex McKay fut invité à la conférence sur l'Histoire du Tibet organisée par John Billington, rédacteur en chef du bulletin de la Tibet Society of the United Kingdom, et un comité d’universitaires à St Andrews en Écosse en hommage à Hugh Richardson tenue en septembre 2001. Il écrivit l'introduction de l'ouvrage de recension du colloque international correspondant[5].
-En octobre 2002, il obtient une bourse de recherche au Centre d'histoire de la médecine Wellcome Trust à l'University College de Londres, où il reste jusqu'en avril 2006, date à laquelle il prend une retraite anticipée pour rejoindre le pays natal de son épouse artiste[1], l'Australie, et écrire[4].
-En octobre 2008, il préside la conférence du jubilé d'or de l'Institut Namgyal de tibétologie à Gangtok réunissant 60 éminents universitaires, éducateurs, dignitaires et personnes intéressées dans le domaine des études bouddhiques himalayennes[6],[7].
-En 2012, il fait partie des « plus grands spécialistes du Tibet » qui demandent à Xi Jinping d'intervenir pour sauver la langue tibétaine[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se rend au Tibet pour la première fois en 1984 à l'époque de son ouverture aux voyageurs occidentaux.
+En 1989, ses voyages au Tibet et dans l'Himalaya indien le conduisent à commencer des études à l’université de Londres. Il obtient un BA en sciences et histoire à l'université de Londres en 1992 et bénéficie d'une bourse majeure de la British Academy lui permettant de terminer sa thèse de doctorat en 1995 sur le Tibet et le Raj britannique.
+Entre novembre 1995 et août 2000, Alex McKay travaille à l’Institut international d’études asiatiques (IIAS) à Leyde, dont il est resté membre associé.
+En septembre 2000, il reçoit une bourse de recherche du millénaire de l'université de Londres de deux ans pour étudier l’histoire du pèlerinage indo-tibétain au mont Kailash. 
+Alex McKay fut invité à la conférence sur l'Histoire du Tibet organisée par John Billington, rédacteur en chef du bulletin de la Tibet Society of the United Kingdom, et un comité d’universitaires à St Andrews en Écosse en hommage à Hugh Richardson tenue en septembre 2001. Il écrivit l'introduction de l'ouvrage de recension du colloque international correspondant.
+En octobre 2002, il obtient une bourse de recherche au Centre d'histoire de la médecine Wellcome Trust à l'University College de Londres, où il reste jusqu'en avril 2006, date à laquelle il prend une retraite anticipée pour rejoindre le pays natal de son épouse artiste, l'Australie, et écrire.
+En octobre 2008, il préside la conférence du jubilé d'or de l'Institut Namgyal de tibétologie à Gangtok réunissant 60 éminents universitaires, éducateurs, dignitaires et personnes intéressées dans le domaine des études bouddhiques himalayennes,.
+En 2012, il fait partie des « plus grands spécialistes du Tibet » qui demandent à Xi Jinping d'intervenir pour sauver la langue tibétaine.
 </t>
         </is>
       </c>
@@ -549,10 +563,12 @@
           <t>Accueil critique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour Melinda Pilling, le compte-rendu historique Tibet and the British Raj: The Frontier Cadre 1904-1947 (1997) d'Alex McKay, informatif et bien documenté, comble une lacune dans les recherches sur la politique tibétaine au XXe siècle et alimente de nouvelles pistes dans les études tibétaines sur les relations entre l'élite tibétaine, les puissances coloniales et néocoloniales et la Chine. Alex McKay retrace l’histoire de la présence britannique au Tibet des plus de 100 représentants du Raj britannique ayant servi au Tibet depuis la mission britannique de 1904 à Lhassa jusqu’à la fin du Raj en 1947[9].
-Son ouvrage Kailas Histories est qualifié par Himani Upadhyaya de livre bien documenté et opportun sur un site sacré « séculaire » de l’Himalaya d'une immense popularité récente : le mont Kailash (6 660 m) et les lacs de Mansarovar et de Rakas Tal, au sud-ouest du plateau tibétain. Contribution notable à l'histoire de l'Himalaya et du Tibet, l'ouvrage devrait intéresser les chercheurs étudiant l’Himalaya occidental et le Tibet. C'est le résultat de près de trois décennies d'études critiques de l'auteur se basant sur nombre de sources textuelles et non textuelles ainsi que des recherches anthropologiques de terrain[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour Melinda Pilling, le compte-rendu historique Tibet and the British Raj: The Frontier Cadre 1904-1947 (1997) d'Alex McKay, informatif et bien documenté, comble une lacune dans les recherches sur la politique tibétaine au XXe siècle et alimente de nouvelles pistes dans les études tibétaines sur les relations entre l'élite tibétaine, les puissances coloniales et néocoloniales et la Chine. Alex McKay retrace l’histoire de la présence britannique au Tibet des plus de 100 représentants du Raj britannique ayant servi au Tibet depuis la mission britannique de 1904 à Lhassa jusqu’à la fin du Raj en 1947.
+Son ouvrage Kailas Histories est qualifié par Himani Upadhyaya de livre bien documenté et opportun sur un site sacré « séculaire » de l’Himalaya d'une immense popularité récente : le mont Kailash (6 660 m) et les lacs de Mansarovar et de Rakas Tal, au sud-ouest du plateau tibétain. Contribution notable à l'histoire de l'Himalaya et du Tibet, l'ouvrage devrait intéresser les chercheurs étudiant l’Himalaya occidental et le Tibet. C'est le résultat de près de trois décennies d'études critiques de l'auteur se basant sur nombre de sources textuelles et non textuelles ainsi que des recherches anthropologiques de terrain.
 </t>
         </is>
       </c>
@@ -583,21 +599,60 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Livres
-En tant qu'auteur
-Footprints Remain: Biomedical Beginnings across the Indo-Tibetan Frontier 1870-1970, University of Amsterdam/IIAS, 2007 [University of Chicago Press, 2008][11]
-Tibet and the British Raj: The Frontier Cadre 1904-1947, Curzon Press, Richmond, London, 1997 , préfacé par Michael Aris [2nd edition by Library of Tibetan Works and Archives, Dharamsala, India, 2009][9]
-Kailas Histories: Renunciate Traditions and the Construction of Himalayan Sacred Geography, Serie: Brill's Tibetan Studies Library, Band: 38,  Brill, 2015,  (ISBN 978-90-04-30618-9), 530 pages[12],[13]
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En tant qu'auteur
+Footprints Remain: Biomedical Beginnings across the Indo-Tibetan Frontier 1870-1970, University of Amsterdam/IIAS, 2007 [University of Chicago Press, 2008]
+Tibet and the British Raj: The Frontier Cadre 1904-1947, Curzon Press, Richmond, London, 1997 , préfacé par Michael Aris [2nd edition by Library of Tibetan Works and Archives, Dharamsala, India, 2009]
+Kailas Histories: Renunciate Traditions and the Construction of Himalayan Sacred Geography, Serie: Brill's Tibetan Studies Library, Band: 38,  Brill, 2015,  (ISBN 978-90-04-30618-9), 530 pages,
 En tant que directeur
 Pilgrimage in Tibet, Curzon Press, Richmond, London, 1998
-Tibetan History: Tibet and her Neighbours, HansJorgye Mayer, London, 2003[14].
-The History of Tibet (3 volumes), RoutledgeCurzon, London, 2003[15]
+Tibetan History: Tibet and her Neighbours, HansJorgye Mayer, London, 2003.
+The History of Tibet (3 volumes), RoutledgeCurzon, London, 2003
 The Early Period: to c. AD-850, Cornell University Press, 2003  (ISBN 0-415-30842-9)
 The Medieval Period: c. 850-1895, Cornell University Press, 2003  (ISBN 0-415-30843-7)
 The Modern Period: 1895-1959, Cornell University Press, 2003  (ISBN 0-415-30844-5)
-Sikkim History and Culture (2 volumes), Namgyal Institute of Tibetology, Gangtok, Sikkim, 2010; avec Anna Balikci-Denjongpa
-Articles
-« “The Birth of a Clinic”? The IMS Dispensary in Gyantse (Tibet), 1904–1910 », Med Hist., vol. 49, no 2,‎ 1er avril 2005, p. 135–154 (ISSN 0025-7273, PMID 15895753, PMCID PMCPMC1088216, lire en ligne, consulté le 30 avril 2019)
+Sikkim History and Culture (2 volumes), Namgyal Institute of Tibetology, Gangtok, Sikkim, 2010; avec Anna Balikci-Denjongpa</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alex_McKay</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alex_McKay</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>« “The Birth of a Clinic”? The IMS Dispensary in Gyantse (Tibet), 1904–1910 », Med Hist., vol. 49, no 2,‎ 1er avril 2005, p. 135–154 (ISSN 0025-7273, PMID 15895753, PMCID PMCPMC1088216, lire en ligne, consulté le 30 avril 2019)
 "It seems he is an enthusiast about Tibet": Lieutenant-Colonel James Guthrie, OBE (1906-71), J Med Biogr. 2005; 13 (3): 128-35.
 "An excellent measure": the battle against smallpox in Tibet, 1904-47, The Tibet Journal (Library of Tibetan Works and Archives), Vol. 30/31, No. 4/1, Contributions to the study of Tibetan medicine (Winter 2005 &amp; Spring 2006), pp. 119-130.
 Himalayan Medical Encounters: The Establishment of Biomedicine in Tibet and in Indian Exile, in Proceedings of the Tenth Seminar of the IATS, 2003. Volume 10: Soundings in Tibetan Medicine, Volume: 10/10,  (ISBN 9789004155503), BRILL, 2007
@@ -606,31 +661,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Alex_McKay</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alex_McKay</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Référence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ a et b Graham Beattie, The Team That Changed Rugby Forever.
